--- a/Datasets/Metro.xlsx
+++ b/Datasets/Metro.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Git Project\Transit Dashboard\Transit-Dashboard\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.shabani\Documents\GitHub\Transit-Dashboard\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0915BDEE-9C0E-42F5-8FED-C9BBD4F7AFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -21,23 +22,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$P$208</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1276">
   <si>
     <t>City</t>
   </si>
@@ -3865,15 +3855,12 @@
   </si>
   <si>
     <t>lon</t>
-  </si>
-  <si>
-    <t>at</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -4303,11 +4290,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q208"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4375,7 +4363,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4423,14 +4411,13 @@
         <v>14</v>
       </c>
       <c r="P2">
-        <f>IFERROR(LEFT(N2,FIND("k",N2)-2)*1,0)</f>
         <v>18.5</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4478,14 +4465,13 @@
         <v>22</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="0">IFERROR(LEFT(N3,FIND("k",N3)-2)*1,0)</f>
         <v>56.7</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4533,14 +4519,13 @@
         <v>30</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
         <v>12.1</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4588,7 +4573,6 @@
         <v>37</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="Q5" s="7" t="s">
@@ -4606,7 +4590,7 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="E6" t="str">
         <f>VLOOKUP(C6,Developing!B:C,2,0)</f>
@@ -4643,14 +4627,13 @@
         <v>45</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
         <v>83.3</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4698,14 +4681,13 @@
         <v>53</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
         <v>40.700000000000003</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4753,7 +4735,6 @@
         <v>59</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
         <v>11.7</v>
       </c>
       <c r="Q8" s="7" t="s">
@@ -4808,7 +4789,6 @@
         <v>67</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
         <v>40.799999999999997</v>
       </c>
       <c r="Q9" s="7" t="s">
@@ -4863,14 +4843,13 @@
         <v>75</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4918,14 +4897,13 @@
         <v>82</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
         <v>28.1</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4973,14 +4951,13 @@
         <v>87</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
         <v>42.38</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5028,14 +5005,13 @@
         <v>94</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
         <v>24.1</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5083,14 +5059,13 @@
         <v>101</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
         <v>43.8</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5138,14 +5113,13 @@
         <v>106</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5193,14 +5167,13 @@
         <v>113</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5248,14 +5221,13 @@
         <v>117</v>
       </c>
       <c r="P17">
-        <f t="shared" si="0"/>
         <v>32.5</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5303,7 +5275,6 @@
         <v>124</v>
       </c>
       <c r="P18">
-        <f t="shared" si="0"/>
         <v>104.4</v>
       </c>
       <c r="Q18" s="7" t="s">
@@ -5358,14 +5329,13 @@
         <v>131</v>
       </c>
       <c r="P19">
-        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5413,14 +5383,13 @@
         <v>139</v>
       </c>
       <c r="P20">
-        <f t="shared" si="0"/>
         <v>69.2</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5468,14 +5437,13 @@
         <v>59</v>
       </c>
       <c r="P21">
-        <f t="shared" si="0"/>
         <v>16.600000000000001</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5523,14 +5491,13 @@
         <v>149</v>
       </c>
       <c r="P22">
-        <f t="shared" si="0"/>
         <v>70.5</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5578,14 +5545,13 @@
         <v>154</v>
       </c>
       <c r="P23">
-        <f t="shared" si="0"/>
         <v>79.599999999999994</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5633,14 +5599,13 @@
         <v>161</v>
       </c>
       <c r="P24">
-        <f t="shared" si="0"/>
         <v>143.80000000000001</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5687,14 +5652,13 @@
         <v>168</v>
       </c>
       <c r="P25">
-        <f t="shared" si="0"/>
         <v>785.7</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5741,14 +5705,13 @@
         <v>173</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5795,14 +5758,13 @@
         <v>178</v>
       </c>
       <c r="P27">
-        <f t="shared" si="0"/>
         <v>207.9</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5849,14 +5811,13 @@
         <v>183</v>
       </c>
       <c r="P28">
-        <f t="shared" si="0"/>
         <v>54.03</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5903,14 +5864,13 @@
         <v>189</v>
       </c>
       <c r="P29">
-        <f t="shared" si="0"/>
         <v>518.5</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5957,14 +5917,13 @@
         <v>195</v>
       </c>
       <c r="P30">
-        <f t="shared" si="0"/>
         <v>485.02</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6011,14 +5970,13 @@
         <v>201</v>
       </c>
       <c r="P31">
-        <f t="shared" si="0"/>
         <v>237.74</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6065,14 +6023,13 @@
         <v>206</v>
       </c>
       <c r="P32">
-        <f t="shared" si="0"/>
         <v>37.700000000000003</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6119,14 +6076,13 @@
         <v>211</v>
       </c>
       <c r="P33">
-        <f t="shared" si="0"/>
         <v>112.7</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6173,14 +6129,13 @@
         <v>216</v>
       </c>
       <c r="P34">
-        <f t="shared" si="0"/>
         <v>143.5</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6227,14 +6182,13 @@
         <v>222</v>
       </c>
       <c r="P35">
-        <f t="shared" si="0"/>
         <v>617.04999999999995</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6281,14 +6235,13 @@
         <v>227</v>
       </c>
       <c r="P36">
-        <f t="shared" si="0"/>
         <v>75.7</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6335,14 +6288,13 @@
         <v>231</v>
       </c>
       <c r="P37">
-        <f t="shared" si="0"/>
         <v>516.20000000000005</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6389,14 +6341,13 @@
         <v>236</v>
       </c>
       <c r="P38">
-        <f t="shared" si="0"/>
         <v>82.8</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6443,14 +6394,13 @@
         <v>241</v>
       </c>
       <c r="P39">
-        <f t="shared" si="0"/>
         <v>176.15</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6497,14 +6447,13 @@
         <v>245</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
         <v>49.039000000000001</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6551,14 +6500,13 @@
         <v>249</v>
       </c>
       <c r="P41">
-        <f t="shared" si="0"/>
         <v>209</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6605,14 +6553,13 @@
         <v>254</v>
       </c>
       <c r="P42">
-        <f t="shared" si="0"/>
         <v>84.25</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6659,14 +6606,13 @@
         <v>59</v>
       </c>
       <c r="P43">
-        <f t="shared" si="0"/>
         <v>118.5</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6713,14 +6659,13 @@
         <v>263</v>
       </c>
       <c r="P44">
-        <f t="shared" si="0"/>
         <v>164.3</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6767,14 +6712,13 @@
         <v>267</v>
       </c>
       <c r="P45">
-        <f t="shared" si="0"/>
         <v>34.96</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6821,14 +6765,13 @@
         <v>59</v>
       </c>
       <c r="P46">
-        <f t="shared" si="0"/>
         <v>43.554000000000002</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6875,14 +6818,13 @@
         <v>277</v>
       </c>
       <c r="P47">
-        <f t="shared" si="0"/>
         <v>128.30000000000001</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6929,14 +6871,13 @@
         <v>283</v>
       </c>
       <c r="P48">
-        <f t="shared" si="0"/>
         <v>498.66</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6983,14 +6924,13 @@
         <v>288</v>
       </c>
       <c r="P49">
-        <f t="shared" si="0"/>
         <v>128.19999999999999</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7037,14 +6977,13 @@
         <v>59</v>
       </c>
       <c r="P50">
-        <f t="shared" si="0"/>
         <v>39.182000000000002</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7091,14 +7030,13 @@
         <v>296</v>
       </c>
       <c r="P51">
-        <f t="shared" si="0"/>
         <v>185.36</v>
       </c>
       <c r="Q51" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7145,14 +7083,13 @@
         <v>301</v>
       </c>
       <c r="P52">
-        <f t="shared" si="0"/>
         <v>315.86</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7199,14 +7136,13 @@
         <v>307</v>
       </c>
       <c r="P53">
-        <f t="shared" si="0"/>
         <v>795.5</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7253,14 +7189,13 @@
         <v>59</v>
       </c>
       <c r="P54">
-        <f t="shared" si="0"/>
         <v>57.83</v>
       </c>
       <c r="Q54" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7307,14 +7242,13 @@
         <v>316</v>
       </c>
       <c r="P55">
-        <f t="shared" si="0"/>
         <v>163.69999999999999</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7361,14 +7295,13 @@
         <v>321</v>
       </c>
       <c r="P56">
-        <f t="shared" si="0"/>
         <v>547.41999999999996</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7415,14 +7348,13 @@
         <v>326</v>
       </c>
       <c r="P57">
-        <f t="shared" si="0"/>
         <v>76.5</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7469,14 +7401,13 @@
         <v>331</v>
       </c>
       <c r="P58">
-        <f t="shared" si="0"/>
         <v>249.47</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7523,14 +7454,13 @@
         <v>336</v>
       </c>
       <c r="P59">
-        <f t="shared" si="0"/>
         <v>23.646999999999998</v>
       </c>
       <c r="Q59" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7577,14 +7507,13 @@
         <v>59</v>
       </c>
       <c r="P60">
-        <f t="shared" si="0"/>
         <v>52.4</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7631,14 +7560,13 @@
         <v>343</v>
       </c>
       <c r="P61">
-        <f t="shared" si="0"/>
         <v>288.25</v>
       </c>
       <c r="Q61" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7685,14 +7613,13 @@
         <v>348</v>
       </c>
       <c r="P62">
-        <f t="shared" si="0"/>
         <v>27.614999999999998</v>
       </c>
       <c r="Q62" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7739,14 +7666,13 @@
         <v>352</v>
       </c>
       <c r="P63">
-        <f t="shared" si="0"/>
         <v>116.5</v>
       </c>
       <c r="Q63" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7793,14 +7719,13 @@
         <v>356</v>
       </c>
       <c r="P64">
-        <f t="shared" si="0"/>
         <v>460.94400000000002</v>
       </c>
       <c r="Q64" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7847,14 +7772,13 @@
         <v>361</v>
       </c>
       <c r="P65">
-        <f t="shared" si="0"/>
         <v>114.8</v>
       </c>
       <c r="Q65" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7901,14 +7825,13 @@
         <v>365</v>
       </c>
       <c r="P66">
-        <f t="shared" si="0"/>
         <v>98.4</v>
       </c>
       <c r="Q66" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7955,14 +7878,13 @@
         <v>370</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P130" si="1">IFERROR(LEFT(N67,FIND("k",N67)-2)*1,0)</f>
         <v>311</v>
       </c>
       <c r="Q67" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8009,14 +7931,13 @@
         <v>375</v>
       </c>
       <c r="P68">
-        <f t="shared" si="1"/>
         <v>64.349999999999994</v>
       </c>
       <c r="Q68" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8063,14 +7984,13 @@
         <v>380</v>
       </c>
       <c r="P69">
-        <f t="shared" si="1"/>
         <v>260.60000000000002</v>
       </c>
       <c r="Q69" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8118,7 +8038,6 @@
         <v>386</v>
       </c>
       <c r="P70">
-        <f t="shared" si="1"/>
         <v>31.3</v>
       </c>
       <c r="Q70" s="7" t="s">
@@ -8173,7 +8092,6 @@
         <v>392</v>
       </c>
       <c r="P71">
-        <f t="shared" si="1"/>
         <v>65.400000000000006</v>
       </c>
       <c r="Q71" s="7" t="s">
@@ -8228,14 +8146,13 @@
         <v>398</v>
       </c>
       <c r="P72">
-        <f t="shared" si="1"/>
         <v>38.200000000000003</v>
       </c>
       <c r="Q72" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8283,14 +8200,13 @@
         <v>403</v>
       </c>
       <c r="P73">
-        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="Q73" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8338,14 +8254,13 @@
         <v>59</v>
       </c>
       <c r="P74">
-        <f t="shared" si="1"/>
         <v>22.6</v>
       </c>
       <c r="Q74" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8393,7 +8308,6 @@
         <v>414</v>
       </c>
       <c r="P75">
-        <f t="shared" si="1"/>
         <v>93.4</v>
       </c>
       <c r="Q75" s="7" t="s">
@@ -8448,7 +8362,6 @@
         <v>420</v>
       </c>
       <c r="P76">
-        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="Q76" s="7" t="s">
@@ -8503,7 +8416,6 @@
         <v>427</v>
       </c>
       <c r="P77">
-        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="Q77" s="7" t="s">
@@ -8558,7 +8470,6 @@
         <v>432</v>
       </c>
       <c r="P78">
-        <f t="shared" si="1"/>
         <v>34.4</v>
       </c>
       <c r="Q78" s="7" t="s">
@@ -8613,7 +8524,6 @@
         <v>438</v>
       </c>
       <c r="P79">
-        <f t="shared" si="1"/>
         <v>22.7</v>
       </c>
       <c r="Q79" s="7" t="s">
@@ -8668,7 +8578,6 @@
         <v>444</v>
       </c>
       <c r="P80">
-        <f t="shared" si="1"/>
         <v>226.9</v>
       </c>
       <c r="Q80" s="7" t="s">
@@ -8723,7 +8632,6 @@
         <v>448</v>
       </c>
       <c r="P81">
-        <f t="shared" si="1"/>
         <v>22.4</v>
       </c>
       <c r="Q81" s="7" t="s">
@@ -8778,14 +8686,13 @@
         <v>453</v>
       </c>
       <c r="P82">
-        <f t="shared" si="1"/>
         <v>28.2</v>
       </c>
       <c r="Q82" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8833,7 +8740,6 @@
         <v>458</v>
       </c>
       <c r="P83">
-        <f t="shared" si="1"/>
         <v>27.3</v>
       </c>
       <c r="Q83" s="7" t="s">
@@ -8888,7 +8794,6 @@
         <v>465</v>
       </c>
       <c r="P84">
-        <f t="shared" si="1"/>
         <v>147.80000000000001</v>
       </c>
       <c r="Q84" s="7" t="s">
@@ -8943,7 +8848,6 @@
         <v>470</v>
       </c>
       <c r="P85">
-        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="Q85" s="7" t="s">
@@ -8998,7 +8902,6 @@
         <v>475</v>
       </c>
       <c r="P86">
-        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="Q86" s="7" t="s">
@@ -9053,7 +8956,6 @@
         <v>481</v>
       </c>
       <c r="P87">
-        <f t="shared" si="1"/>
         <v>38.4</v>
       </c>
       <c r="Q87" s="7" t="s">
@@ -9108,7 +9010,6 @@
         <v>488</v>
       </c>
       <c r="P88">
-        <f t="shared" si="1"/>
         <v>91.7</v>
       </c>
       <c r="Q88" s="7" t="s">
@@ -9163,14 +9064,13 @@
         <v>495</v>
       </c>
       <c r="P89">
-        <f t="shared" si="1"/>
         <v>39.200000000000003</v>
       </c>
       <c r="Q89" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9218,14 +9118,13 @@
         <v>501</v>
       </c>
       <c r="P90">
-        <f t="shared" si="1"/>
         <v>37.86</v>
       </c>
       <c r="Q90" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9273,14 +9172,13 @@
         <v>505</v>
       </c>
       <c r="P91">
-        <f t="shared" si="1"/>
         <v>73.81</v>
       </c>
       <c r="Q91" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9328,14 +9226,13 @@
         <v>509</v>
       </c>
       <c r="P92">
-        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="Q92" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9383,14 +9280,13 @@
         <v>514</v>
       </c>
       <c r="P93">
-        <f t="shared" si="1"/>
         <v>350.42</v>
       </c>
       <c r="Q93" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9438,14 +9334,13 @@
         <v>519</v>
       </c>
       <c r="P94">
-        <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
       <c r="Q94" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9493,14 +9388,13 @@
         <v>524</v>
       </c>
       <c r="P95">
-        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="Q95" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9548,14 +9442,13 @@
         <v>528</v>
       </c>
       <c r="P96">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="Q96" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9603,14 +9496,13 @@
         <v>59</v>
       </c>
       <c r="P97">
-        <f t="shared" si="1"/>
         <v>8.98</v>
       </c>
       <c r="Q97" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9658,14 +9550,13 @@
         <v>536</v>
       </c>
       <c r="P98">
-        <f t="shared" si="1"/>
         <v>27.4</v>
       </c>
       <c r="Q98" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9713,14 +9604,13 @@
         <v>540</v>
       </c>
       <c r="P99">
-        <f t="shared" si="1"/>
         <v>46.96</v>
       </c>
       <c r="Q99" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9768,14 +9658,13 @@
         <v>544</v>
       </c>
       <c r="P100">
-        <f t="shared" si="1"/>
         <v>22.87</v>
       </c>
       <c r="Q100" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9823,14 +9712,13 @@
         <v>548</v>
       </c>
       <c r="P101">
-        <f t="shared" si="1"/>
         <v>46.4</v>
       </c>
       <c r="Q101" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9878,14 +9766,13 @@
         <v>551</v>
       </c>
       <c r="P102">
-        <f t="shared" si="1"/>
         <v>38.200000000000003</v>
       </c>
       <c r="Q102" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9933,14 +9820,13 @@
         <v>555</v>
       </c>
       <c r="P103">
-        <f t="shared" si="1"/>
         <v>29.7</v>
       </c>
       <c r="Q103" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9988,14 +9874,13 @@
         <v>59</v>
       </c>
       <c r="P104">
-        <f t="shared" si="1"/>
         <v>33.200000000000003</v>
       </c>
       <c r="Q104" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" t="s">
         <v>1190</v>
@@ -10041,14 +9926,13 @@
         <v>59</v>
       </c>
       <c r="P105">
-        <f t="shared" si="1"/>
         <v>11.1</v>
       </c>
       <c r="Q105" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>103</v>
       </c>
@@ -10096,14 +9980,13 @@
         <v>563</v>
       </c>
       <c r="P106">
-        <f t="shared" si="1"/>
         <v>15.7</v>
       </c>
       <c r="Q106" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>104</v>
       </c>
@@ -10151,14 +10034,13 @@
         <v>59</v>
       </c>
       <c r="P107">
-        <f t="shared" si="1"/>
         <v>20.2</v>
       </c>
       <c r="Q107" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>105</v>
       </c>
@@ -10206,14 +10088,13 @@
         <v>571</v>
       </c>
       <c r="P108">
-        <f t="shared" si="1"/>
         <v>37.5</v>
       </c>
       <c r="Q108" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>106</v>
       </c>
@@ -10261,14 +10142,13 @@
         <v>574</v>
       </c>
       <c r="P109">
-        <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
       <c r="Q109" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10316,14 +10196,13 @@
         <v>59</v>
       </c>
       <c r="P110">
-        <f t="shared" si="1"/>
         <v>17.2</v>
       </c>
       <c r="Q110" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10371,7 +10250,6 @@
         <v>584</v>
       </c>
       <c r="P111">
-        <f t="shared" si="1"/>
         <v>279.2</v>
       </c>
       <c r="Q111" s="7" t="s">
@@ -10426,7 +10304,6 @@
         <v>590</v>
       </c>
       <c r="P112">
-        <f t="shared" si="1"/>
         <v>13.7</v>
       </c>
       <c r="Q112" s="7" t="s">
@@ -10481,7 +10358,6 @@
         <v>594</v>
       </c>
       <c r="P113">
-        <f t="shared" si="1"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="Q113" s="7" t="s">
@@ -10536,7 +10412,6 @@
         <v>600</v>
       </c>
       <c r="P114">
-        <f t="shared" si="1"/>
         <v>7.1</v>
       </c>
       <c r="Q114" s="7" t="s">
@@ -10591,7 +10466,6 @@
         <v>606</v>
       </c>
       <c r="P115">
-        <f t="shared" si="1"/>
         <v>104.1</v>
       </c>
       <c r="Q115" s="7" t="s">
@@ -10646,7 +10520,6 @@
         <v>610</v>
       </c>
       <c r="P116">
-        <f t="shared" si="1"/>
         <v>30.8</v>
       </c>
       <c r="Q116" s="7" t="s">
@@ -10701,7 +10574,6 @@
         <v>616</v>
       </c>
       <c r="P117">
-        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Q117" s="7" t="s">
@@ -10756,14 +10628,13 @@
         <v>621</v>
       </c>
       <c r="P118">
-        <f t="shared" si="1"/>
         <v>15.1</v>
       </c>
       <c r="Q118" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10811,14 +10682,13 @@
         <v>626</v>
       </c>
       <c r="P119">
-        <f t="shared" si="1"/>
         <v>31.4</v>
       </c>
       <c r="Q119" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -10866,14 +10736,13 @@
         <v>631</v>
       </c>
       <c r="P120">
-        <f t="shared" si="1"/>
         <v>18.399999999999999</v>
       </c>
       <c r="Q120" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -10921,14 +10790,13 @@
         <v>635</v>
       </c>
       <c r="P121">
-        <f t="shared" si="1"/>
         <v>38.1</v>
       </c>
       <c r="Q121" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -10976,14 +10844,13 @@
         <v>640</v>
       </c>
       <c r="P122">
-        <f t="shared" si="1"/>
         <v>31.2</v>
       </c>
       <c r="Q122" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -11031,14 +10898,13 @@
         <v>646</v>
       </c>
       <c r="P123">
-        <f t="shared" si="1"/>
         <v>93.3</v>
       </c>
       <c r="Q123" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -11086,14 +10952,13 @@
         <v>652</v>
       </c>
       <c r="P124">
-        <f t="shared" si="1"/>
         <v>129.9</v>
       </c>
       <c r="Q124" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -11141,14 +11006,13 @@
         <v>657</v>
       </c>
       <c r="P125">
-        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="Q125" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -11196,14 +11060,13 @@
         <v>661</v>
       </c>
       <c r="P126">
-        <f t="shared" si="1"/>
         <v>28.7</v>
       </c>
       <c r="Q126" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -11251,14 +11114,13 @@
         <v>666</v>
       </c>
       <c r="P127">
-        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="Q127" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -11306,14 +11168,13 @@
         <v>671</v>
       </c>
       <c r="P128">
-        <f t="shared" si="1"/>
         <v>195.1</v>
       </c>
       <c r="Q128" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11361,14 +11222,13 @@
         <v>674</v>
       </c>
       <c r="P129">
-        <f t="shared" si="1"/>
         <v>12.2</v>
       </c>
       <c r="Q129" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11416,14 +11276,13 @@
         <v>678</v>
       </c>
       <c r="P130">
-        <f t="shared" si="1"/>
         <v>53.4</v>
       </c>
       <c r="Q130" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -11471,14 +11330,13 @@
         <v>682</v>
       </c>
       <c r="P131">
-        <f t="shared" ref="P131:P194" si="2">IFERROR(LEFT(N131,FIND("k",N131)-2)*1,0)</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="Q131" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -11526,14 +11384,13 @@
         <v>687</v>
       </c>
       <c r="P132">
-        <f t="shared" si="2"/>
         <v>13.4</v>
       </c>
       <c r="Q132" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -11581,14 +11438,13 @@
         <v>693</v>
       </c>
       <c r="P133">
-        <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
       <c r="Q133" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -11636,14 +11492,13 @@
         <v>699</v>
       </c>
       <c r="P134">
-        <f t="shared" si="2"/>
         <v>140.1</v>
       </c>
       <c r="Q134" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -11691,14 +11546,13 @@
         <v>704</v>
       </c>
       <c r="P135">
-        <f t="shared" si="2"/>
         <v>82.9</v>
       </c>
       <c r="Q135" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="136" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -11746,14 +11600,13 @@
         <v>707</v>
       </c>
       <c r="P136">
-        <f t="shared" si="2"/>
         <v>22.6</v>
       </c>
       <c r="Q136" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="137" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -11801,14 +11654,13 @@
         <v>711</v>
       </c>
       <c r="P137">
-        <f t="shared" si="2"/>
         <v>20.100000000000001</v>
       </c>
       <c r="Q137" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -11856,14 +11708,13 @@
         <v>715</v>
       </c>
       <c r="P138">
-        <f t="shared" si="2"/>
         <v>59.7</v>
       </c>
       <c r="Q138" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -11911,14 +11762,13 @@
         <v>720</v>
       </c>
       <c r="P139">
-        <f t="shared" si="2"/>
         <v>345.3</v>
       </c>
       <c r="Q139" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -11966,14 +11816,13 @@
         <v>724</v>
       </c>
       <c r="P140">
-        <f t="shared" si="2"/>
         <v>151.69999999999999</v>
       </c>
       <c r="Q140" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -12021,14 +11870,13 @@
         <v>728</v>
       </c>
       <c r="P141">
-        <f t="shared" si="2"/>
         <v>33.4</v>
       </c>
       <c r="Q141" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -12076,14 +11924,13 @@
         <v>734</v>
       </c>
       <c r="P142">
-        <f t="shared" si="2"/>
         <v>196.2</v>
       </c>
       <c r="Q142" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -12131,14 +11978,13 @@
         <v>739</v>
       </c>
       <c r="P143">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="Q143" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -12186,14 +12032,13 @@
         <v>745</v>
       </c>
       <c r="P144">
-        <f t="shared" si="2"/>
         <v>200.88</v>
       </c>
       <c r="Q144" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -12241,7 +12086,6 @@
         <v>751</v>
       </c>
       <c r="P145">
-        <f t="shared" si="2"/>
         <v>40.200000000000003</v>
       </c>
       <c r="Q145" s="7" t="s">
@@ -12296,7 +12140,6 @@
         <v>756</v>
       </c>
       <c r="P146">
-        <f t="shared" si="2"/>
         <v>41.2</v>
       </c>
       <c r="Q146" s="7" t="s">
@@ -12351,14 +12194,13 @@
         <v>762</v>
       </c>
       <c r="P147">
-        <f t="shared" si="2"/>
         <v>102.3</v>
       </c>
       <c r="Q147" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -12406,7 +12248,6 @@
         <v>59</v>
       </c>
       <c r="P148">
-        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="Q148" s="7" t="s">
@@ -12461,14 +12302,13 @@
         <v>772</v>
       </c>
       <c r="P149">
-        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="Q149" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -12516,14 +12356,13 @@
         <v>778</v>
       </c>
       <c r="P150">
-        <f t="shared" si="2"/>
         <v>27.1</v>
       </c>
       <c r="Q150" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -12571,14 +12410,13 @@
         <v>783</v>
       </c>
       <c r="P151">
-        <f t="shared" si="2"/>
         <v>37.799999999999997</v>
       </c>
       <c r="Q151" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -12626,14 +12464,13 @@
         <v>787</v>
       </c>
       <c r="P152">
-        <f t="shared" si="2"/>
         <v>34.4</v>
       </c>
       <c r="Q152" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -12681,14 +12518,13 @@
         <v>792</v>
       </c>
       <c r="P153">
-        <f t="shared" si="2"/>
         <v>37.200000000000003</v>
       </c>
       <c r="Q153" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -12736,7 +12572,6 @@
         <v>795</v>
       </c>
       <c r="P154">
-        <f t="shared" si="2"/>
         <v>16.899999999999999</v>
       </c>
       <c r="Q154" s="7" t="s">
@@ -12791,7 +12626,6 @@
         <v>799</v>
       </c>
       <c r="P155">
-        <f t="shared" si="2"/>
         <v>41.2</v>
       </c>
       <c r="Q155" s="7" t="s">
@@ -12846,14 +12680,13 @@
         <v>806</v>
       </c>
       <c r="P156">
-        <f t="shared" si="2"/>
         <v>44.2</v>
       </c>
       <c r="Q156" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -12901,7 +12734,6 @@
         <v>59</v>
       </c>
       <c r="P157">
-        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="Q157" s="7" t="s">
@@ -12956,7 +12788,6 @@
         <v>815</v>
       </c>
       <c r="P158">
-        <f t="shared" si="2"/>
         <v>78.5</v>
       </c>
       <c r="Q158" s="7" t="s">
@@ -13011,7 +12842,6 @@
         <v>820</v>
       </c>
       <c r="P159">
-        <f t="shared" si="2"/>
         <v>16.8</v>
       </c>
       <c r="Q159" s="7" t="s">
@@ -13066,7 +12896,6 @@
         <v>826</v>
       </c>
       <c r="P160">
-        <f t="shared" si="2"/>
         <v>460.5</v>
       </c>
       <c r="Q160" s="7" t="s">
@@ -13121,7 +12950,6 @@
         <v>830</v>
       </c>
       <c r="P161">
-        <f t="shared" si="2"/>
         <v>21.4</v>
       </c>
       <c r="Q161" s="7" t="s">
@@ -13176,7 +13004,6 @@
         <v>835</v>
       </c>
       <c r="P162">
-        <f t="shared" si="2"/>
         <v>15.9</v>
       </c>
       <c r="Q162" s="7" t="s">
@@ -13231,7 +13058,6 @@
         <v>840</v>
       </c>
       <c r="P163">
-        <f t="shared" si="2"/>
         <v>124.8</v>
       </c>
       <c r="Q163" s="7" t="s">
@@ -13286,7 +13112,6 @@
         <v>844</v>
       </c>
       <c r="P164">
-        <f t="shared" si="2"/>
         <v>11.6</v>
       </c>
       <c r="Q164" s="7" t="s">
@@ -13341,14 +13166,13 @@
         <v>848</v>
       </c>
       <c r="P165">
-        <f t="shared" si="2"/>
         <v>12.7</v>
       </c>
       <c r="Q165" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -13396,7 +13220,6 @@
         <v>853</v>
       </c>
       <c r="P166">
-        <f t="shared" si="2"/>
         <v>230.6</v>
       </c>
       <c r="Q166" s="7" t="s">
@@ -13451,7 +13274,6 @@
         <v>859</v>
       </c>
       <c r="P167">
-        <f t="shared" si="2"/>
         <v>128.30000000000001</v>
       </c>
       <c r="Q167" s="7" t="s">
@@ -13506,7 +13328,6 @@
         <v>863</v>
       </c>
       <c r="P168">
-        <f t="shared" si="2"/>
         <v>45.1</v>
       </c>
       <c r="Q168" s="7" t="s">
@@ -13561,7 +13382,6 @@
         <v>869</v>
       </c>
       <c r="P169">
-        <f t="shared" si="2"/>
         <v>293.89999999999998</v>
       </c>
       <c r="Q169" s="7" t="s">
@@ -13616,7 +13436,6 @@
         <v>875</v>
       </c>
       <c r="P170">
-        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="Q170" s="7" t="s">
@@ -13671,14 +13490,13 @@
         <v>880</v>
       </c>
       <c r="P171">
-        <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
       <c r="Q171" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -13726,14 +13544,13 @@
         <v>885</v>
       </c>
       <c r="P172">
-        <f t="shared" si="2"/>
         <v>42.7</v>
       </c>
       <c r="Q172" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -13781,14 +13598,13 @@
         <v>890</v>
       </c>
       <c r="P173">
-        <f t="shared" si="2"/>
         <v>146.19999999999999</v>
       </c>
       <c r="Q173" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -13836,14 +13652,13 @@
         <v>59</v>
       </c>
       <c r="P174">
-        <f t="shared" si="2"/>
         <v>16.7</v>
       </c>
       <c r="Q174" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -13891,14 +13706,13 @@
         <v>897</v>
       </c>
       <c r="P175">
-        <f t="shared" si="2"/>
         <v>53.1</v>
       </c>
       <c r="Q175" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="176" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -13946,14 +13760,13 @@
         <v>902</v>
       </c>
       <c r="P176">
-        <f t="shared" si="2"/>
         <v>70.05</v>
       </c>
       <c r="Q176" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -14001,7 +13814,6 @@
         <v>906</v>
       </c>
       <c r="P177">
-        <f t="shared" si="2"/>
         <v>101.4</v>
       </c>
       <c r="Q177" s="7" t="s">
@@ -14056,7 +13868,6 @@
         <v>911</v>
       </c>
       <c r="P178">
-        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="Q178" s="7" t="s">
@@ -14111,7 +13922,6 @@
         <v>916</v>
       </c>
       <c r="P179">
-        <f t="shared" si="2"/>
         <v>67.400000000000006</v>
       </c>
       <c r="Q179" s="7" t="s">
@@ -14166,7 +13976,6 @@
         <v>920</v>
       </c>
       <c r="P180">
-        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="Q180" s="7" t="s">
@@ -14221,7 +14030,6 @@
         <v>925</v>
       </c>
       <c r="P181">
-        <f t="shared" si="2"/>
         <v>199.26</v>
       </c>
       <c r="Q181" s="7" t="s">
@@ -14276,7 +14084,6 @@
         <v>929</v>
       </c>
       <c r="P182">
-        <f t="shared" si="2"/>
         <v>19.8</v>
       </c>
       <c r="Q182" s="7" t="s">
@@ -14331,7 +14138,6 @@
         <v>934</v>
       </c>
       <c r="P183">
-        <f t="shared" si="2"/>
         <v>7.8</v>
       </c>
       <c r="Q183" s="7" t="s">
@@ -14386,7 +14192,6 @@
         <v>938</v>
       </c>
       <c r="P184">
-        <f t="shared" si="2"/>
         <v>38.700000000000003</v>
       </c>
       <c r="Q184" s="7" t="s">
@@ -14441,14 +14246,13 @@
         <v>943</v>
       </c>
       <c r="P185">
-        <f t="shared" si="2"/>
         <v>67.7</v>
       </c>
       <c r="Q185" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="186" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -14496,7 +14300,6 @@
         <v>948</v>
       </c>
       <c r="P186">
-        <f t="shared" si="2"/>
         <v>89.3</v>
       </c>
       <c r="Q186" s="7" t="s">
@@ -14551,7 +14354,6 @@
         <v>953</v>
       </c>
       <c r="P187">
-        <f t="shared" si="2"/>
         <v>10.4</v>
       </c>
       <c r="Q187" s="7" t="s">
@@ -14606,7 +14408,6 @@
         <v>959</v>
       </c>
       <c r="P188">
-        <f t="shared" si="2"/>
         <v>402</v>
       </c>
       <c r="Q188" s="7" t="s">
@@ -14661,14 +14462,13 @@
         <v>963</v>
       </c>
       <c r="P189">
-        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="Q189" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="190" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -14716,14 +14516,13 @@
         <v>968</v>
       </c>
       <c r="P190">
-        <f t="shared" si="2"/>
         <v>76.599999999999994</v>
       </c>
       <c r="Q190" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -14771,14 +14570,13 @@
         <v>972</v>
       </c>
       <c r="P191">
-        <f t="shared" si="2"/>
         <v>24.9</v>
       </c>
       <c r="Q191" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -14826,14 +14624,13 @@
         <v>977</v>
       </c>
       <c r="P192">
-        <f t="shared" si="2"/>
         <v>63.9</v>
       </c>
       <c r="Q192" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -14881,14 +14678,13 @@
         <v>983</v>
       </c>
       <c r="P193">
-        <f t="shared" si="2"/>
         <v>165.4</v>
       </c>
       <c r="Q193" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -14936,14 +14732,13 @@
         <v>987</v>
       </c>
       <c r="P194">
-        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="Q194" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -14991,14 +14786,13 @@
         <v>59</v>
       </c>
       <c r="P195">
-        <f t="shared" ref="P195:P208" si="3">IFERROR(LEFT(N195,FIND("k",N195)-2)*1,0)</f>
         <v>17.399999999999999</v>
       </c>
       <c r="Q195" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -15046,14 +14840,13 @@
         <v>994</v>
       </c>
       <c r="P196">
-        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="Q196" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -15101,14 +14894,13 @@
         <v>998</v>
       </c>
       <c r="P197">
-        <f t="shared" si="3"/>
         <v>39.299999999999997</v>
       </c>
       <c r="Q197" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -15156,14 +14948,13 @@
         <v>1004</v>
       </c>
       <c r="P198">
-        <f t="shared" si="3"/>
         <v>399</v>
       </c>
       <c r="Q198" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -15211,14 +15002,13 @@
         <v>1007</v>
       </c>
       <c r="P199">
-        <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
       <c r="Q199" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -15266,14 +15056,13 @@
         <v>1012</v>
       </c>
       <c r="P200">
-        <f t="shared" si="3"/>
         <v>22.2</v>
       </c>
       <c r="Q200" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -15321,14 +15110,13 @@
         <v>1017</v>
       </c>
       <c r="P201">
-        <f t="shared" si="3"/>
         <v>59.1</v>
       </c>
       <c r="Q201" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -15376,14 +15164,13 @@
         <v>1022</v>
       </c>
       <c r="P202">
-        <f t="shared" si="3"/>
         <v>22.9</v>
       </c>
       <c r="Q202" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -15431,14 +15218,13 @@
         <v>1026</v>
       </c>
       <c r="P203">
-        <f t="shared" si="3"/>
         <v>191.5</v>
       </c>
       <c r="Q203" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -15486,14 +15272,13 @@
         <v>1029</v>
       </c>
       <c r="P204">
-        <f t="shared" si="3"/>
         <v>17.2</v>
       </c>
       <c r="Q204" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -15541,14 +15326,13 @@
         <v>1032</v>
       </c>
       <c r="P205">
-        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="Q205" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -15596,14 +15380,13 @@
         <v>1037</v>
       </c>
       <c r="P206">
-        <f t="shared" si="3"/>
         <v>66.5</v>
       </c>
       <c r="Q206" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -15651,14 +15434,13 @@
         <v>1042</v>
       </c>
       <c r="P207">
-        <f t="shared" si="3"/>
         <v>67.2</v>
       </c>
       <c r="Q207" s="7" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -15706,7 +15488,6 @@
         <v>1048</v>
       </c>
       <c r="P208">
-        <f t="shared" si="3"/>
         <v>13.1</v>
       </c>
       <c r="Q208" s="7" t="s">
@@ -15714,215 +15495,222 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P208"/>
+  <autoFilter ref="A1:P208" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="at"/>
+        <filter val="Europe"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
-    <hyperlink ref="Q3" r:id="rId2"/>
-    <hyperlink ref="Q4" r:id="rId3"/>
-    <hyperlink ref="Q5" r:id="rId4"/>
-    <hyperlink ref="Q6" r:id="rId5"/>
-    <hyperlink ref="Q7" r:id="rId6"/>
-    <hyperlink ref="Q8" r:id="rId7"/>
-    <hyperlink ref="Q9" r:id="rId8"/>
-    <hyperlink ref="Q10" r:id="rId9"/>
-    <hyperlink ref="Q11" r:id="rId10"/>
-    <hyperlink ref="Q12" r:id="rId11"/>
-    <hyperlink ref="Q13" r:id="rId12"/>
-    <hyperlink ref="Q14" r:id="rId13"/>
-    <hyperlink ref="Q15" r:id="rId14"/>
-    <hyperlink ref="Q16" r:id="rId15"/>
-    <hyperlink ref="Q17" r:id="rId16"/>
-    <hyperlink ref="Q18" r:id="rId17"/>
-    <hyperlink ref="Q19" r:id="rId18"/>
-    <hyperlink ref="Q20" r:id="rId19"/>
-    <hyperlink ref="Q21" r:id="rId20"/>
-    <hyperlink ref="Q22" r:id="rId21"/>
-    <hyperlink ref="Q23" r:id="rId22"/>
-    <hyperlink ref="Q24" r:id="rId23"/>
-    <hyperlink ref="Q25" r:id="rId24"/>
-    <hyperlink ref="Q26" r:id="rId25"/>
-    <hyperlink ref="Q27" r:id="rId26"/>
-    <hyperlink ref="Q28" r:id="rId27"/>
-    <hyperlink ref="Q29" r:id="rId28"/>
-    <hyperlink ref="Q30" r:id="rId29"/>
-    <hyperlink ref="Q31" r:id="rId30"/>
-    <hyperlink ref="Q32" r:id="rId31"/>
-    <hyperlink ref="Q33" r:id="rId32"/>
-    <hyperlink ref="Q34" r:id="rId33"/>
-    <hyperlink ref="Q35" r:id="rId34"/>
-    <hyperlink ref="Q36" r:id="rId35"/>
-    <hyperlink ref="Q37" r:id="rId36"/>
-    <hyperlink ref="Q38" r:id="rId37"/>
-    <hyperlink ref="Q39" r:id="rId38"/>
-    <hyperlink ref="Q40" r:id="rId39"/>
-    <hyperlink ref="Q41" r:id="rId40"/>
-    <hyperlink ref="Q42" r:id="rId41"/>
-    <hyperlink ref="Q43" r:id="rId42"/>
-    <hyperlink ref="Q44" r:id="rId43"/>
-    <hyperlink ref="Q45" r:id="rId44"/>
-    <hyperlink ref="Q46" r:id="rId45"/>
-    <hyperlink ref="Q47" r:id="rId46"/>
-    <hyperlink ref="Q48" r:id="rId47"/>
-    <hyperlink ref="Q49" r:id="rId48"/>
-    <hyperlink ref="Q50" r:id="rId49"/>
-    <hyperlink ref="Q51" r:id="rId50"/>
-    <hyperlink ref="Q52" r:id="rId51"/>
-    <hyperlink ref="Q53" r:id="rId52"/>
-    <hyperlink ref="Q54" r:id="rId53"/>
-    <hyperlink ref="Q55" r:id="rId54"/>
-    <hyperlink ref="Q56" r:id="rId55"/>
-    <hyperlink ref="Q57" r:id="rId56"/>
-    <hyperlink ref="Q58" r:id="rId57"/>
-    <hyperlink ref="Q59" r:id="rId58"/>
-    <hyperlink ref="Q60" r:id="rId59"/>
-    <hyperlink ref="Q61" r:id="rId60"/>
-    <hyperlink ref="Q62" r:id="rId61"/>
-    <hyperlink ref="Q63" r:id="rId62"/>
-    <hyperlink ref="Q64" r:id="rId63"/>
-    <hyperlink ref="Q65" r:id="rId64"/>
-    <hyperlink ref="Q66" r:id="rId65"/>
-    <hyperlink ref="Q67" r:id="rId66"/>
-    <hyperlink ref="Q68" r:id="rId67"/>
-    <hyperlink ref="Q69" r:id="rId68"/>
-    <hyperlink ref="Q70" r:id="rId69"/>
-    <hyperlink ref="Q71" r:id="rId70"/>
-    <hyperlink ref="Q72" r:id="rId71"/>
-    <hyperlink ref="Q73" r:id="rId72"/>
-    <hyperlink ref="Q74" r:id="rId73"/>
-    <hyperlink ref="Q75" r:id="rId74"/>
-    <hyperlink ref="Q76" r:id="rId75"/>
-    <hyperlink ref="Q77" r:id="rId76"/>
-    <hyperlink ref="Q78" r:id="rId77"/>
-    <hyperlink ref="Q79" r:id="rId78"/>
-    <hyperlink ref="Q80" r:id="rId79"/>
-    <hyperlink ref="Q81" r:id="rId80"/>
-    <hyperlink ref="Q82" r:id="rId81"/>
-    <hyperlink ref="Q83" r:id="rId82"/>
-    <hyperlink ref="Q84" r:id="rId83"/>
-    <hyperlink ref="Q85" r:id="rId84"/>
-    <hyperlink ref="Q86" r:id="rId85"/>
-    <hyperlink ref="Q87" r:id="rId86"/>
-    <hyperlink ref="Q88" r:id="rId87"/>
-    <hyperlink ref="Q89" r:id="rId88"/>
-    <hyperlink ref="Q90" r:id="rId89"/>
-    <hyperlink ref="Q91" r:id="rId90"/>
-    <hyperlink ref="Q92" r:id="rId91"/>
-    <hyperlink ref="Q93" r:id="rId92"/>
-    <hyperlink ref="Q94" r:id="rId93"/>
-    <hyperlink ref="Q95" r:id="rId94"/>
-    <hyperlink ref="Q96" r:id="rId95"/>
-    <hyperlink ref="Q97" r:id="rId96"/>
-    <hyperlink ref="Q98" r:id="rId97"/>
-    <hyperlink ref="Q99" r:id="rId98"/>
-    <hyperlink ref="Q100" r:id="rId99"/>
-    <hyperlink ref="Q101" r:id="rId100"/>
-    <hyperlink ref="Q102" r:id="rId101"/>
-    <hyperlink ref="Q103" r:id="rId102"/>
-    <hyperlink ref="Q104" r:id="rId103"/>
-    <hyperlink ref="Q105" r:id="rId104"/>
-    <hyperlink ref="Q106" r:id="rId105"/>
-    <hyperlink ref="Q107" r:id="rId106"/>
-    <hyperlink ref="Q108" r:id="rId107"/>
-    <hyperlink ref="Q109" r:id="rId108"/>
-    <hyperlink ref="Q110" r:id="rId109"/>
-    <hyperlink ref="Q111" r:id="rId110"/>
-    <hyperlink ref="Q112" r:id="rId111"/>
-    <hyperlink ref="Q113" r:id="rId112"/>
-    <hyperlink ref="Q114" r:id="rId113"/>
-    <hyperlink ref="Q115" r:id="rId114"/>
-    <hyperlink ref="Q116" r:id="rId115"/>
-    <hyperlink ref="Q117" r:id="rId116"/>
-    <hyperlink ref="Q118" r:id="rId117"/>
-    <hyperlink ref="Q119" r:id="rId118"/>
-    <hyperlink ref="Q120" r:id="rId119"/>
-    <hyperlink ref="Q121" r:id="rId120"/>
-    <hyperlink ref="Q122" r:id="rId121"/>
-    <hyperlink ref="Q123" r:id="rId122"/>
-    <hyperlink ref="Q124" r:id="rId123"/>
-    <hyperlink ref="Q125" r:id="rId124"/>
-    <hyperlink ref="Q126" r:id="rId125"/>
-    <hyperlink ref="Q127" r:id="rId126"/>
-    <hyperlink ref="Q129" r:id="rId127"/>
-    <hyperlink ref="Q130" r:id="rId128"/>
-    <hyperlink ref="Q131" r:id="rId129"/>
-    <hyperlink ref="Q128" r:id="rId130"/>
-    <hyperlink ref="Q132" r:id="rId131"/>
-    <hyperlink ref="Q133" r:id="rId132"/>
-    <hyperlink ref="Q134" r:id="rId133"/>
-    <hyperlink ref="Q135" r:id="rId134"/>
-    <hyperlink ref="Q136" r:id="rId135"/>
-    <hyperlink ref="Q137" r:id="rId136"/>
-    <hyperlink ref="Q138" r:id="rId137"/>
-    <hyperlink ref="Q139" r:id="rId138"/>
-    <hyperlink ref="Q140" r:id="rId139"/>
-    <hyperlink ref="Q141" r:id="rId140"/>
-    <hyperlink ref="Q142" r:id="rId141"/>
-    <hyperlink ref="Q143" r:id="rId142"/>
-    <hyperlink ref="Q144" r:id="rId143"/>
-    <hyperlink ref="Q145" r:id="rId144"/>
-    <hyperlink ref="Q146" r:id="rId145"/>
-    <hyperlink ref="Q147" r:id="rId146"/>
-    <hyperlink ref="Q148" r:id="rId147"/>
-    <hyperlink ref="Q149" r:id="rId148"/>
-    <hyperlink ref="Q150" r:id="rId149"/>
-    <hyperlink ref="Q151" r:id="rId150"/>
-    <hyperlink ref="Q152" r:id="rId151"/>
-    <hyperlink ref="Q153" r:id="rId152"/>
-    <hyperlink ref="Q154" r:id="rId153"/>
-    <hyperlink ref="Q155" r:id="rId154"/>
-    <hyperlink ref="Q156" r:id="rId155"/>
-    <hyperlink ref="Q158" r:id="rId156"/>
-    <hyperlink ref="Q159" r:id="rId157"/>
-    <hyperlink ref="Q160" r:id="rId158"/>
-    <hyperlink ref="Q161" r:id="rId159"/>
-    <hyperlink ref="Q157" r:id="rId160"/>
-    <hyperlink ref="Q163" r:id="rId161"/>
-    <hyperlink ref="Q164" r:id="rId162"/>
-    <hyperlink ref="Q162" r:id="rId163"/>
-    <hyperlink ref="Q165" r:id="rId164"/>
-    <hyperlink ref="Q166" r:id="rId165"/>
-    <hyperlink ref="Q167" r:id="rId166"/>
-    <hyperlink ref="Q168" r:id="rId167"/>
-    <hyperlink ref="Q170" r:id="rId168"/>
-    <hyperlink ref="Q169" r:id="rId169"/>
-    <hyperlink ref="Q171" r:id="rId170"/>
-    <hyperlink ref="Q172" r:id="rId171"/>
-    <hyperlink ref="Q173" r:id="rId172"/>
-    <hyperlink ref="Q174" r:id="rId173"/>
-    <hyperlink ref="Q175" r:id="rId174"/>
-    <hyperlink ref="Q177" r:id="rId175"/>
-    <hyperlink ref="Q179" r:id="rId176"/>
-    <hyperlink ref="Q178" r:id="rId177"/>
-    <hyperlink ref="Q176" r:id="rId178"/>
-    <hyperlink ref="Q180" r:id="rId179"/>
-    <hyperlink ref="Q181" r:id="rId180"/>
-    <hyperlink ref="Q182" r:id="rId181"/>
-    <hyperlink ref="Q183" r:id="rId182"/>
-    <hyperlink ref="Q184" r:id="rId183"/>
-    <hyperlink ref="Q185" r:id="rId184"/>
-    <hyperlink ref="Q186" r:id="rId185"/>
-    <hyperlink ref="Q187" r:id="rId186"/>
-    <hyperlink ref="Q188" r:id="rId187"/>
-    <hyperlink ref="Q189" r:id="rId188"/>
-    <hyperlink ref="Q190" r:id="rId189"/>
-    <hyperlink ref="Q191" r:id="rId190"/>
-    <hyperlink ref="Q192" r:id="rId191"/>
-    <hyperlink ref="Q193" r:id="rId192"/>
-    <hyperlink ref="Q194" r:id="rId193"/>
-    <hyperlink ref="Q195" r:id="rId194"/>
-    <hyperlink ref="Q196" r:id="rId195"/>
-    <hyperlink ref="Q197" r:id="rId196"/>
-    <hyperlink ref="Q198" r:id="rId197"/>
-    <hyperlink ref="Q199" r:id="rId198"/>
-    <hyperlink ref="Q200" r:id="rId199"/>
-    <hyperlink ref="Q201" r:id="rId200"/>
-    <hyperlink ref="Q202" r:id="rId201"/>
-    <hyperlink ref="Q203" r:id="rId202"/>
-    <hyperlink ref="Q204" r:id="rId203"/>
-    <hyperlink ref="Q205" r:id="rId204"/>
-    <hyperlink ref="Q206" r:id="rId205"/>
-    <hyperlink ref="Q207" r:id="rId206"/>
-    <hyperlink ref="Q208" r:id="rId207"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Q8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Q12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Q14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="Q18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="Q20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="Q22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="Q24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="Q26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="Q28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="Q30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="Q32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="Q34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="Q36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="Q38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="Q40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="Q42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="Q44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Q46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="Q48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="Q50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="Q52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="Q54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Q56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="Q58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="Q60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="Q61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="Q62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="Q64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="Q66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="Q67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="Q68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="Q69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="Q70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Q71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="Q72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="Q73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="Q74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="Q75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="Q76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="Q77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="Q78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="Q79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="Q80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="Q81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="Q82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="Q83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="Q84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="Q85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="Q86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="Q87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="Q88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="Q89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="Q90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="Q91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="Q92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="Q93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="Q94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="Q95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="Q96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="Q97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="Q98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="Q99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="Q100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="Q101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="Q102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="Q103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="Q104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="Q105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="Q106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="Q107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="Q108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="Q109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="Q110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="Q111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="Q112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="Q113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="Q114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="Q115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="Q116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="Q117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="Q118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="Q119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="Q120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="Q121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="Q122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="Q123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="Q124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="Q125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="Q126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="Q127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="Q129" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="Q130" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="Q131" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="Q128" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="Q132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="Q133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="Q134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="Q135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="Q136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="Q137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="Q138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="Q139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="Q140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="Q141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="Q142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="Q143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="Q144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="Q145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="Q146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="Q147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="Q148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="Q149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="Q150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="Q151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="Q152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="Q153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="Q154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="Q155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="Q156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="Q158" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="Q159" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="Q160" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="Q161" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="Q157" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="Q163" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="Q164" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="Q162" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="Q165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="Q166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="Q167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="Q168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="Q170" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="Q169" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="Q171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="Q172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="Q173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="Q174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="Q175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="Q177" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="Q179" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="Q178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="Q176" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="Q180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="Q181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="Q182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="Q183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="Q184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="Q185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="Q186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="Q187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="Q188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="Q189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="Q190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="Q191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="Q192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="Q193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="Q194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="Q195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="Q196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="Q197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="Q198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="Q199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="Q200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="Q201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="Q202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="Q203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="Q204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="Q205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="Q206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="Q207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="Q208" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId208"/>
@@ -15930,7 +15718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -17580,7 +17368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19427,7 +19215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -20037,13 +19825,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
